--- a/biology/Zoologie/Delias_descombesi/Delias_descombesi.xlsx
+++ b/biology/Zoologie/Delias_descombesi/Delias_descombesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delias descombesi ou Jezebel à tache rouge[1] est une espèce de lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Pierinae et du genre Delias.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delias descombesi ou Jezebel à tache rouge est une espèce de lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Pierinae et du genre Delias.
 C'est un papillon très commun dans les jardins situés en zones vallonnées d'altitude moyenne.
 </t>
         </is>
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom officiel :  Delias descombesi  décrit par le naturaliste français  Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836[2],[3].
-Noms vernaculaires
-Il se nomme Red-spot Jezebel en anglais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom officiel :  Delias descombesi  décrit par le naturaliste français  Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836,.
 </t>
         </is>
       </c>
@@ -542,89 +554,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Red-spot Jezebel en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe pour cette espèce 5 sous-espèces
-Delias descombesi descombesi [4]
+Delias descombesi descombesi 
 Synonymie pour cette sous-espèce :
 Delias descombesi leucacantha (Fruhstorfer, 1910)
 Delias descombesi leucogaea (Fruhstorfer, 1910)
 Delias descombesi auriga (Fruhstorfer, 1910)
-Delias descombesi eranthos (Fruhstorfer, 1905)[5]
-Delias descombesi lydia (Fruhstorfer, 1897) [6]
-Delias descombesi adonarensis (Rothschild, 1925)[7]
-Delias descombesi trig (D'Abrera, 1982)[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delias_descombesi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Delias descombesi eranthos (Fruhstorfer, 1905)
+Delias descombesi lydia (Fruhstorfer, 1897) 
+Delias descombesi adonarensis (Rothschild, 1925)
+Delias descombesi trig (D'Abrera, 1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Face dorsale
 			Face ventrale
 			Ailes repliées, Parc national de Phu Laen Kha, Thaïlande
 Le dessus du mâle est blanc finement bordé de gris (plus largement à l'apex des antérieures. Le dessous des antérieures est semblable alors que les postérieures sont jaune d'or avec une tache ovalaire orange. Il a une envergure variant de 68 mm à 88 mm.
-Le dessus de la femelle est grise marqué de blanc, le dessous des postérieures est blanc suffusé de crème avec la même marque orange que le mâle. Elle est plus grande que lui avec une envergure variant de 80 mm à 90 mm[9].
+Le dessus de la femelle est grise marqué de blanc, le dessous des postérieures est blanc suffusé de crème avec la même marque orange que le mâle. Elle est plus grande que lui avec une envergure variant de 80 mm à 90 mm.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Delias_descombesi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il vole toute l'année[9].
-Plantes hôtes
-La chenille se nourrit de feuilles du Tabèke (Lagerstroemia tomentosa, Lythraceae), un arbre d'environ 10 m de haut à la jolie floraison et de feuilles de Scurrula parasitica (Loranthaceae), un arbuste parasite.</t>
         </is>
       </c>
     </row>
@@ -649,16 +670,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon réside au Népal, au Bhoutan, en Inde, en Birmanie, en Thaïlande, dans les péninsules indochinoise et malaise ainsi qu'à Florès et Bali[3].
-Biotope
-Le Jezebel à tache rouge vit dans les zones vallonnées de moyenne altitude mais on peut aussi le trouver à de très hautes altitudes, à plus de 3000 m dans le Népal.
-Protection
-Pas de statut de protection particulier
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
 </t>
         </is>
       </c>
@@ -684,10 +703,156 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La chenille se nourrit de feuilles du Tabèke (Lagerstroemia tomentosa, Lythraceae), un arbre d'environ 10 m de haut à la jolie floraison et de feuilles de Scurrula parasitica (Loranthaceae), un arbuste parasite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon réside au Népal, au Bhoutan, en Inde, en Birmanie, en Thaïlande, dans les péninsules indochinoise et malaise ainsi qu'à Florès et Bali.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jezebel à tache rouge vit dans les zones vallonnées de moyenne altitude mais on peut aussi le trouver à de très hautes altitudes, à plus de 3000 m dans le Népal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_descombesi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bhoutan a édité un timbre représentant Delias descombesi en 1990
 </t>
